--- a/Project 2/test_results_-_input.xlsx
+++ b/Project 2/test_results_-_input.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="test_results_-_input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
   <si>
     <t>M</t>
   </si>
@@ -422,6 +423,9 @@
   </si>
   <si>
     <t>Throughtput (29)</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -862,7 +866,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -905,11 +909,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -949,6 +955,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -961,6 +968,567 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.94E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.197E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2185E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4799999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0919999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6535E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$17:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.94E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0290000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.197E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.908E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1315000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8700000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.908E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9574999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>8.9099999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5959999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0160000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9140000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (6)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>8.9099999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0919999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2540000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3949999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$45:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>1.0290000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1684999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0160000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6970000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (15)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$65:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>1.5389999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4840000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.349E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$85:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="4">
+                  <c:v>1.8720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8270000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughtput (25)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$105:$L$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>2.3924999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50219264"/>
+        <c:axId val="140201984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50219264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140201984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140201984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50219264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442911</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1253,7 +1821,7 @@
   <dimension ref="A1:EF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +2374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:136" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1916,7 +2484,7 @@
         <v>2.4599999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:136" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2026,7 +2594,7 @@
         <v>3.96E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:136" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2196,7 +2764,7 @@
         <v>7.0200000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:136" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2426,7 +2994,7 @@
         <v>8.6099999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:136" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2756,13 +3324,13 @@
       <c r="M7">
         <v>1.4664E-2</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>0.99921697239999996</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>4.8850000000000002E-5</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7">
@@ -2866,13 +3434,13 @@
       <c r="M8">
         <v>6.9794999999999899E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0.99916991239999997</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>5.35535999999999E-5</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8">
@@ -3036,13 +3604,13 @@
       <c r="M9">
         <v>0.15485399999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>0.999207895466666</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>5.3721333333333303E-5</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9">
@@ -3266,13 +3834,13 @@
       <c r="M10">
         <v>0.27640199999999998</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>0.96527146180000001</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>5.4777200000000001E-5</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>3.3945860600000002E-2</v>
       </c>
       <c r="Q10">
@@ -3556,13 +4124,13 @@
       <c r="M11">
         <v>0.432228</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>0.95371171824000001</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>5.6908159999999901E-5</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>4.551050048E-2</v>
       </c>
       <c r="Q11">
@@ -3906,13 +4474,13 @@
       <c r="M12">
         <v>0.61502400000000002</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>0.94925066686666604</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>5.6752999999999997E-5</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>4.9985389999999998E-2</v>
       </c>
       <c r="Q12">
@@ -4279,4 +4847,2567 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>20</v>
+      </c>
+      <c r="K1">
+        <v>25</v>
+      </c>
+      <c r="L1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1647</v>
+      </c>
+      <c r="C2">
+        <v>1647</v>
+      </c>
+      <c r="D2">
+        <v>1634.21100917431</v>
+      </c>
+      <c r="E2">
+        <v>1699.3469387755099</v>
+      </c>
+      <c r="F2">
+        <v>1657.91489361702</v>
+      </c>
+      <c r="G2">
+        <v>1647</v>
+      </c>
+      <c r="H2">
+        <v>1647</v>
+      </c>
+      <c r="I2">
+        <v>1658.1521739130401</v>
+      </c>
+      <c r="J2">
+        <v>1647</v>
+      </c>
+      <c r="K2">
+        <v>1647</v>
+      </c>
+      <c r="L2">
+        <v>1667.11764705882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1647</v>
+      </c>
+      <c r="C4">
+        <v>1647</v>
+      </c>
+      <c r="D4">
+        <v>1634.21100917431</v>
+      </c>
+      <c r="E4">
+        <v>1699.3469387755099</v>
+      </c>
+      <c r="F4">
+        <v>1657.91489361702</v>
+      </c>
+      <c r="G4">
+        <v>1647</v>
+      </c>
+      <c r="H4">
+        <v>1647</v>
+      </c>
+      <c r="I4">
+        <v>1658.1521739130401</v>
+      </c>
+      <c r="J4">
+        <v>1647</v>
+      </c>
+      <c r="K4">
+        <v>1647</v>
+      </c>
+      <c r="L4">
+        <v>1667.11764705882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="C5">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.635E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.0290000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.3395000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="H5">
+        <v>5.94E-3</v>
+      </c>
+      <c r="I5">
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="J5">
+        <v>1.197E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.2185E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1647</v>
+      </c>
+      <c r="C6">
+        <v>1647</v>
+      </c>
+      <c r="D6">
+        <v>1647</v>
+      </c>
+      <c r="E6">
+        <v>1647</v>
+      </c>
+      <c r="F6">
+        <v>1662.34352078239</v>
+      </c>
+      <c r="G6">
+        <v>1681.97727272727</v>
+      </c>
+      <c r="H6">
+        <v>1679.0625</v>
+      </c>
+      <c r="I6">
+        <v>1676.5961538461499</v>
+      </c>
+      <c r="J6">
+        <v>1647</v>
+      </c>
+      <c r="K6">
+        <v>1671.42857142857</v>
+      </c>
+      <c r="L6">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1647</v>
+      </c>
+      <c r="C8">
+        <v>1647</v>
+      </c>
+      <c r="D8">
+        <v>1647</v>
+      </c>
+      <c r="E8">
+        <v>1647</v>
+      </c>
+      <c r="F8">
+        <v>1662.34352078239</v>
+      </c>
+      <c r="G8">
+        <v>1681.97727272727</v>
+      </c>
+      <c r="H8">
+        <v>1679.0625</v>
+      </c>
+      <c r="I8">
+        <v>1676.5961538461499</v>
+      </c>
+      <c r="J8">
+        <v>1647</v>
+      </c>
+      <c r="K8">
+        <v>1671.42857142857</v>
+      </c>
+      <c r="L8">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="C9">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="D9">
+        <v>7.4250000000000002E-3</v>
+      </c>
+      <c r="E9">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.227E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.64E-3</v>
+      </c>
+      <c r="H9">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.0919999999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.2679999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.6535E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1647</v>
+      </c>
+      <c r="C10">
+        <v>1647</v>
+      </c>
+      <c r="D10">
+        <v>1647</v>
+      </c>
+      <c r="E10">
+        <v>1665.6545454545401</v>
+      </c>
+      <c r="F10">
+        <v>1658.93023255813</v>
+      </c>
+      <c r="G10">
+        <v>1657.4693877550999</v>
+      </c>
+      <c r="H10">
+        <v>1656.67924528301</v>
+      </c>
+      <c r="I10">
+        <v>1671.42857142857</v>
+      </c>
+      <c r="J10">
+        <v>1677.1764705882299</v>
+      </c>
+      <c r="K10">
+        <v>1647</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1647</v>
+      </c>
+      <c r="C12">
+        <v>1647</v>
+      </c>
+      <c r="D12">
+        <v>1647</v>
+      </c>
+      <c r="E12">
+        <v>1665.6545454545401</v>
+      </c>
+      <c r="F12">
+        <v>1658.93023255813</v>
+      </c>
+      <c r="G12">
+        <v>1657.4693877550999</v>
+      </c>
+      <c r="H12">
+        <v>1656.67924528301</v>
+      </c>
+      <c r="I12">
+        <v>1671.42857142857</v>
+      </c>
+      <c r="J12">
+        <v>1677.1764705882299</v>
+      </c>
+      <c r="K12">
+        <v>1647</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="C13">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="D13">
+        <v>5.535E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.155E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.2255E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="H13">
+        <v>7.1549999999999999E-3</v>
+      </c>
+      <c r="I13">
+        <v>8.8199999999999997E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.4534999999999999E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.728E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1647</v>
+      </c>
+      <c r="C14">
+        <v>1647</v>
+      </c>
+      <c r="D14">
+        <v>1647</v>
+      </c>
+      <c r="E14">
+        <v>1647</v>
+      </c>
+      <c r="F14">
+        <v>1647</v>
+      </c>
+      <c r="G14">
+        <v>1647</v>
+      </c>
+      <c r="H14">
+        <v>1681.97727272727</v>
+      </c>
+      <c r="I14">
+        <v>1647</v>
+      </c>
+      <c r="J14">
+        <v>1659.2142857142801</v>
+      </c>
+      <c r="K14">
+        <v>1647</v>
+      </c>
+      <c r="L14">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1647</v>
+      </c>
+      <c r="C16">
+        <v>1647</v>
+      </c>
+      <c r="D16">
+        <v>1647</v>
+      </c>
+      <c r="E16">
+        <v>1647</v>
+      </c>
+      <c r="F16">
+        <v>1647</v>
+      </c>
+      <c r="G16">
+        <v>1647</v>
+      </c>
+      <c r="H16">
+        <v>1681.97727272727</v>
+      </c>
+      <c r="I16">
+        <v>1647</v>
+      </c>
+      <c r="J16">
+        <v>1659.2142857142801</v>
+      </c>
+      <c r="K16">
+        <v>1647</v>
+      </c>
+      <c r="L16">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>2.64E-3</v>
+      </c>
+      <c r="C17">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>7.5599999999999999E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.26E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.311E-2</v>
+      </c>
+      <c r="G17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>5.94E-3</v>
+      </c>
+      <c r="I17">
+        <v>1.0290000000000001E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.197E-2</v>
+      </c>
+      <c r="K17">
+        <v>1.908E-2</v>
+      </c>
+      <c r="L17">
+        <v>2.1315000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1647</v>
+      </c>
+      <c r="C18">
+        <v>1655.1666666666599</v>
+      </c>
+      <c r="D18">
+        <v>1670.31111111111</v>
+      </c>
+      <c r="E18">
+        <v>1647</v>
+      </c>
+      <c r="F18">
+        <v>1679.0625</v>
+      </c>
+      <c r="G18">
+        <v>1647</v>
+      </c>
+      <c r="H18">
+        <v>1647</v>
+      </c>
+      <c r="I18">
+        <v>1690.6595744680801</v>
+      </c>
+      <c r="J18">
+        <v>1296.60526315789</v>
+      </c>
+      <c r="K18">
+        <v>1647</v>
+      </c>
+      <c r="L18">
+        <v>1696.13333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>8.1666666666666607</v>
+      </c>
+      <c r="D19">
+        <v>23.311111111111099</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3.5333333333333301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1647</v>
+      </c>
+      <c r="C20">
+        <v>1647</v>
+      </c>
+      <c r="D20">
+        <v>1647</v>
+      </c>
+      <c r="E20">
+        <v>1647</v>
+      </c>
+      <c r="F20">
+        <v>1679.0625</v>
+      </c>
+      <c r="G20">
+        <v>1647</v>
+      </c>
+      <c r="H20">
+        <v>1647</v>
+      </c>
+      <c r="I20">
+        <v>1690.6595744680801</v>
+      </c>
+      <c r="J20">
+        <v>1296.60526315789</v>
+      </c>
+      <c r="K20">
+        <v>1647</v>
+      </c>
+      <c r="L20">
+        <v>1692.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="C21">
+        <v>3.96E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.0749999999999997E-3</v>
+      </c>
+      <c r="E21">
+        <v>8.1899999999999994E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.3679999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="H21">
+        <v>7.5599999999999999E-3</v>
+      </c>
+      <c r="I21">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="J21">
+        <v>1.14E-3</v>
+      </c>
+      <c r="K21">
+        <v>1.908E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.9574999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>1647</v>
+      </c>
+      <c r="E22">
+        <v>1647</v>
+      </c>
+      <c r="F22">
+        <v>1688.04</v>
+      </c>
+      <c r="H22">
+        <v>1647</v>
+      </c>
+      <c r="I22">
+        <v>1647</v>
+      </c>
+      <c r="J22">
+        <v>1647</v>
+      </c>
+      <c r="K22">
+        <v>1698.9642857142801</v>
+      </c>
+      <c r="L22">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>24.482142857142801</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>1647</v>
+      </c>
+      <c r="E24">
+        <v>1647</v>
+      </c>
+      <c r="F24">
+        <v>1688.04</v>
+      </c>
+      <c r="H24">
+        <v>1647</v>
+      </c>
+      <c r="I24">
+        <v>1647</v>
+      </c>
+      <c r="J24">
+        <v>1647</v>
+      </c>
+      <c r="K24">
+        <v>1674.4821428571399</v>
+      </c>
+      <c r="L24">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="E25">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="H25">
+        <v>8.9099999999999995E-3</v>
+      </c>
+      <c r="I25">
+        <v>9.0299999999999998E-3</v>
+      </c>
+      <c r="J25">
+        <v>1.5959999999999998E-2</v>
+      </c>
+      <c r="K25">
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="L25">
+        <v>1.9140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>1643.5226337448501</v>
+      </c>
+      <c r="E26">
+        <v>1647</v>
+      </c>
+      <c r="F26">
+        <v>1690.47457627118</v>
+      </c>
+      <c r="H26">
+        <v>1654.77272727272</v>
+      </c>
+      <c r="I26">
+        <v>1647</v>
+      </c>
+      <c r="J26">
+        <v>1647</v>
+      </c>
+      <c r="K26">
+        <v>1715.4</v>
+      </c>
+      <c r="L26">
+        <v>1564.54766734279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>1643.5226337448501</v>
+      </c>
+      <c r="E28">
+        <v>1647</v>
+      </c>
+      <c r="F28">
+        <v>1690.47457627118</v>
+      </c>
+      <c r="H28">
+        <v>1654.77272727272</v>
+      </c>
+      <c r="I28">
+        <v>1647</v>
+      </c>
+      <c r="J28">
+        <v>1647</v>
+      </c>
+      <c r="K28">
+        <v>1715.4</v>
+      </c>
+      <c r="L28">
+        <v>1564.54766734279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="E29">
+        <v>7.77E-3</v>
+      </c>
+      <c r="F29">
+        <v>1.6815E-2</v>
+      </c>
+      <c r="H29">
+        <v>8.9099999999999995E-3</v>
+      </c>
+      <c r="I29">
+        <v>1.0919999999999999E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.2540000000000001E-2</v>
+      </c>
+      <c r="K29">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="L29">
+        <v>7.3949999999999997E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>1647</v>
+      </c>
+      <c r="E30">
+        <v>1647</v>
+      </c>
+      <c r="F30">
+        <v>1664.3898305084699</v>
+      </c>
+      <c r="H30">
+        <v>1647</v>
+      </c>
+      <c r="I30">
+        <v>1647</v>
+      </c>
+      <c r="J30">
+        <v>1675.9074074073999</v>
+      </c>
+      <c r="K30">
+        <v>1647</v>
+      </c>
+      <c r="L30">
+        <v>1668.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>28.907407407407401</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>1647</v>
+      </c>
+      <c r="E32">
+        <v>1647</v>
+      </c>
+      <c r="F32">
+        <v>1664.3898305084699</v>
+      </c>
+      <c r="H32">
+        <v>1647</v>
+      </c>
+      <c r="I32">
+        <v>1647</v>
+      </c>
+      <c r="J32">
+        <v>1647</v>
+      </c>
+      <c r="K32">
+        <v>1647</v>
+      </c>
+      <c r="L32">
+        <v>1668.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>7.6949999999999996E-3</v>
+      </c>
+      <c r="E33">
+        <v>1.0710000000000001E-2</v>
+      </c>
+      <c r="F33">
+        <v>1.6815E-2</v>
+      </c>
+      <c r="H33">
+        <v>8.2349999999999993E-3</v>
+      </c>
+      <c r="I33">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="J33">
+        <v>1.5389999999999999E-2</v>
+      </c>
+      <c r="K33">
+        <v>1.188E-2</v>
+      </c>
+      <c r="L33">
+        <v>2.0879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>1647</v>
+      </c>
+      <c r="E34">
+        <v>1656.2285714285699</v>
+      </c>
+      <c r="F34">
+        <v>1647</v>
+      </c>
+      <c r="H34">
+        <v>1657.26</v>
+      </c>
+      <c r="I34">
+        <v>1691.8431372549001</v>
+      </c>
+      <c r="J34">
+        <v>1665.32142857142</v>
+      </c>
+      <c r="K34">
+        <v>1647</v>
+      </c>
+      <c r="L34">
+        <v>1688.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>9.2285714285714207</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>24.7254901960784</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>1647</v>
+      </c>
+      <c r="E36">
+        <v>1647</v>
+      </c>
+      <c r="F36">
+        <v>1647</v>
+      </c>
+      <c r="H36">
+        <v>1657.26</v>
+      </c>
+      <c r="I36">
+        <v>1667.11764705882</v>
+      </c>
+      <c r="J36">
+        <v>1665.32142857142</v>
+      </c>
+      <c r="K36">
+        <v>1647</v>
+      </c>
+      <c r="L36">
+        <v>1688.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>5.535E-3</v>
+      </c>
+      <c r="E37">
+        <v>1.47E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.0545000000000001E-2</v>
+      </c>
+      <c r="H37">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="I37">
+        <v>1.0710000000000001E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.5959999999999998E-2</v>
+      </c>
+      <c r="K37">
+        <v>1.3679999999999999E-2</v>
+      </c>
+      <c r="L37">
+        <v>2.1749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>1656.86538461538</v>
+      </c>
+      <c r="E38">
+        <v>1647</v>
+      </c>
+      <c r="F38">
+        <v>1682.79069767441</v>
+      </c>
+      <c r="H38">
+        <v>1647</v>
+      </c>
+      <c r="I38">
+        <v>1657.26</v>
+      </c>
+      <c r="J38">
+        <v>1647</v>
+      </c>
+      <c r="K38">
+        <v>1678.4081632652999</v>
+      </c>
+      <c r="L38">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>1656.86538461538</v>
+      </c>
+      <c r="E40">
+        <v>1647</v>
+      </c>
+      <c r="F40">
+        <v>1682.79069767441</v>
+      </c>
+      <c r="H40">
+        <v>1647</v>
+      </c>
+      <c r="I40">
+        <v>1657.26</v>
+      </c>
+      <c r="J40">
+        <v>1647</v>
+      </c>
+      <c r="K40">
+        <v>1678.4081632652999</v>
+      </c>
+      <c r="L40">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>7.0200000000000002E-3</v>
+      </c>
+      <c r="E41">
+        <v>1.1129999999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>1.2255E-2</v>
+      </c>
+      <c r="H41">
+        <v>6.8849999999999996E-3</v>
+      </c>
+      <c r="I41">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J41">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="L41">
+        <v>2.2620000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42">
+        <v>1687.5</v>
+      </c>
+      <c r="F42">
+        <v>1674.4821428571399</v>
+      </c>
+      <c r="I42">
+        <v>1674.3469387755099</v>
+      </c>
+      <c r="J42">
+        <v>1684.53658536585</v>
+      </c>
+      <c r="K42">
+        <v>1656.1607142857099</v>
+      </c>
+      <c r="L42">
+        <v>1663.5483870967701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>27.3469387755102</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44">
+        <v>1687.5</v>
+      </c>
+      <c r="F44">
+        <v>1674.4821428571399</v>
+      </c>
+      <c r="I44">
+        <v>1647</v>
+      </c>
+      <c r="J44">
+        <v>1684.53658536585</v>
+      </c>
+      <c r="K44">
+        <v>1656.1607142857099</v>
+      </c>
+      <c r="L44">
+        <v>1663.5483870967701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45">
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="F45">
+        <v>1.5959999999999998E-2</v>
+      </c>
+      <c r="I45">
+        <v>1.0290000000000001E-2</v>
+      </c>
+      <c r="J45">
+        <v>1.1684999999999999E-2</v>
+      </c>
+      <c r="K45">
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="L45">
+        <v>2.6970000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46">
+        <v>1666.73076923076</v>
+      </c>
+      <c r="F46">
+        <v>1676.03773584905</v>
+      </c>
+      <c r="I46">
+        <v>1659.5121951219501</v>
+      </c>
+      <c r="J46">
+        <v>1647</v>
+      </c>
+      <c r="K46">
+        <v>1647</v>
+      </c>
+      <c r="L46">
+        <v>1659.5121951219501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48">
+        <v>1666.73076923076</v>
+      </c>
+      <c r="F48">
+        <v>1676.03773584905</v>
+      </c>
+      <c r="I48">
+        <v>1659.5121951219501</v>
+      </c>
+      <c r="J48">
+        <v>1647</v>
+      </c>
+      <c r="K48">
+        <v>1647</v>
+      </c>
+      <c r="L48">
+        <v>1659.5121951219501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49">
+        <v>1.0919999999999999E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.5105E-2</v>
+      </c>
+      <c r="I49">
+        <v>8.6099999999999996E-3</v>
+      </c>
+      <c r="J49">
+        <v>1.3679999999999999E-2</v>
+      </c>
+      <c r="K49">
+        <v>1.584E-2</v>
+      </c>
+      <c r="L49">
+        <v>1.7835E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50">
+        <v>1647</v>
+      </c>
+      <c r="F50">
+        <v>1615.12918660287</v>
+      </c>
+      <c r="I50">
+        <v>1647</v>
+      </c>
+      <c r="J50">
+        <v>1647</v>
+      </c>
+      <c r="K50">
+        <v>1693.6363636363601</v>
+      </c>
+      <c r="L50">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52">
+        <v>1647</v>
+      </c>
+      <c r="F52">
+        <v>1615.12918660287</v>
+      </c>
+      <c r="I52">
+        <v>1647</v>
+      </c>
+      <c r="J52">
+        <v>1647</v>
+      </c>
+      <c r="K52">
+        <v>1693.6363636363601</v>
+      </c>
+      <c r="L52">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53">
+        <v>1.239E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.2540000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="J53">
+        <v>1.311E-2</v>
+      </c>
+      <c r="K53">
+        <v>1.584E-2</v>
+      </c>
+      <c r="L53">
+        <v>2.4795000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54">
+        <v>1647</v>
+      </c>
+      <c r="F54">
+        <v>1647</v>
+      </c>
+      <c r="I54">
+        <v>1679.98113207547</v>
+      </c>
+      <c r="J54">
+        <v>1725.9230769230701</v>
+      </c>
+      <c r="K54">
+        <v>1656</v>
+      </c>
+      <c r="L54">
+        <v>1680.45652173913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>13.622641509433899</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>1647</v>
+      </c>
+      <c r="F56">
+        <v>1647</v>
+      </c>
+      <c r="I56">
+        <v>1666.35849056603</v>
+      </c>
+      <c r="J56">
+        <v>1725.9230769230701</v>
+      </c>
+      <c r="K56">
+        <v>1656</v>
+      </c>
+      <c r="L56">
+        <v>1680.45652173913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57">
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="F57">
+        <v>1.3965E-2</v>
+      </c>
+      <c r="I57">
+        <v>1.1129999999999999E-2</v>
+      </c>
+      <c r="J57">
+        <v>1.482E-2</v>
+      </c>
+      <c r="K57">
+        <v>2.052E-2</v>
+      </c>
+      <c r="L57">
+        <v>2.001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>1647</v>
+      </c>
+      <c r="F58">
+        <v>1673.0847457627101</v>
+      </c>
+      <c r="I58">
+        <v>1647</v>
+      </c>
+      <c r="J58">
+        <v>1676.5961538461499</v>
+      </c>
+      <c r="K58">
+        <v>1659.2142857142801</v>
+      </c>
+      <c r="L58">
+        <v>1666.35849056603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>1647</v>
+      </c>
+      <c r="F60">
+        <v>1673.0847457627101</v>
+      </c>
+      <c r="I60">
+        <v>1647</v>
+      </c>
+      <c r="J60">
+        <v>1676.5961538461499</v>
+      </c>
+      <c r="K60">
+        <v>1659.2142857142801</v>
+      </c>
+      <c r="L60">
+        <v>1666.35849056603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61">
+        <v>8.6099999999999996E-3</v>
+      </c>
+      <c r="F61">
+        <v>1.6815E-2</v>
+      </c>
+      <c r="I61">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="J61">
+        <v>1.482E-2</v>
+      </c>
+      <c r="K61">
+        <v>1.512E-2</v>
+      </c>
+      <c r="L61">
+        <v>2.3054999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62">
+        <v>1647</v>
+      </c>
+      <c r="J62">
+        <v>1647</v>
+      </c>
+      <c r="K62">
+        <v>1661.8695652173899</v>
+      </c>
+      <c r="L62">
+        <v>1694.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64">
+        <v>1647</v>
+      </c>
+      <c r="J64">
+        <v>1647</v>
+      </c>
+      <c r="K64">
+        <v>1661.8695652173899</v>
+      </c>
+      <c r="L64">
+        <v>1694.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65">
+        <v>1.3965E-2</v>
+      </c>
+      <c r="J65">
+        <v>1.5389999999999999E-2</v>
+      </c>
+      <c r="K65">
+        <v>2.4840000000000001E-2</v>
+      </c>
+      <c r="L65">
+        <v>2.349E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66">
+        <v>1700.4375</v>
+      </c>
+      <c r="J66">
+        <v>1577.5</v>
+      </c>
+      <c r="K66">
+        <v>1647</v>
+      </c>
+      <c r="L66">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68">
+        <v>1700.4375</v>
+      </c>
+      <c r="J68">
+        <v>1577.5</v>
+      </c>
+      <c r="K68">
+        <v>1647</v>
+      </c>
+      <c r="L68">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69">
+        <v>1.3679999999999999E-2</v>
+      </c>
+      <c r="J69">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K69">
+        <v>1.404E-2</v>
+      </c>
+      <c r="L69">
+        <v>1.7835E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70">
+        <v>1647</v>
+      </c>
+      <c r="J70">
+        <v>1600.2684210526299</v>
+      </c>
+      <c r="K70">
+        <v>1647</v>
+      </c>
+      <c r="L70">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72">
+        <v>1647</v>
+      </c>
+      <c r="J72">
+        <v>1600.2684210526299</v>
+      </c>
+      <c r="K72">
+        <v>1647</v>
+      </c>
+      <c r="L72">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73">
+        <v>1.7670000000000002E-2</v>
+      </c>
+      <c r="J73">
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="K73">
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="L73">
+        <v>2.1749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74">
+        <v>1647</v>
+      </c>
+      <c r="J74">
+        <v>1647</v>
+      </c>
+      <c r="K74">
+        <v>1709.5609756097499</v>
+      </c>
+      <c r="L74">
+        <v>1720.2857142857099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76">
+        <v>1647</v>
+      </c>
+      <c r="J76">
+        <v>1647</v>
+      </c>
+      <c r="K76">
+        <v>1709.5609756097499</v>
+      </c>
+      <c r="L76">
+        <v>1720.2857142857099</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77">
+        <v>1.6244999999999999E-2</v>
+      </c>
+      <c r="J77">
+        <v>1.4534999999999999E-2</v>
+      </c>
+      <c r="K77">
+        <v>1.4760000000000001E-2</v>
+      </c>
+      <c r="L77">
+        <v>1.8270000000000002E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78">
+        <v>1647</v>
+      </c>
+      <c r="J78">
+        <v>1643.5425</v>
+      </c>
+      <c r="K78">
+        <v>1649.5</v>
+      </c>
+      <c r="L78">
+        <v>1658.6590909090901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2.5</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80">
+        <v>1647</v>
+      </c>
+      <c r="J80">
+        <v>1643.5425</v>
+      </c>
+      <c r="K80">
+        <v>1647</v>
+      </c>
+      <c r="L80">
+        <v>1658.6590909090901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81">
+        <v>1.2540000000000001E-2</v>
+      </c>
+      <c r="J81">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K81">
+        <v>1.728E-2</v>
+      </c>
+      <c r="L81">
+        <v>1.9140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="K82">
+        <v>1656.86538461538</v>
+      </c>
+      <c r="L82">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="K84">
+        <v>1656.86538461538</v>
+      </c>
+      <c r="L84">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+      <c r="K85">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="L85">
+        <v>1.8270000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K86">
+        <v>1672.65</v>
+      </c>
+      <c r="L86">
+        <v>1695.39622641509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="K88">
+        <v>1672.65</v>
+      </c>
+      <c r="L88">
+        <v>1695.39622641509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="K89">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="L89">
+        <v>2.3054999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="K90">
+        <v>1676.5961538461499</v>
+      </c>
+      <c r="L90">
+        <v>1674.98181818181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K92">
+        <v>1676.5961538461499</v>
+      </c>
+      <c r="L92">
+        <v>1674.98181818181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="K93">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="L93">
+        <v>2.3924999999999998E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="K94">
+        <v>1735.7884615384601</v>
+      </c>
+      <c r="L94">
+        <v>1689.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="K96">
+        <v>1735.7884615384601</v>
+      </c>
+      <c r="L96">
+        <v>1689.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="K97">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="L97">
+        <v>2.0879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="K98">
+        <v>1668.8297872340399</v>
+      </c>
+      <c r="L98">
+        <v>1668.375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>114</v>
+      </c>
+      <c r="K100">
+        <v>1668.8297872340399</v>
+      </c>
+      <c r="L100">
+        <v>1668.375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>115</v>
+      </c>
+      <c r="K101">
+        <v>1.6920000000000001E-2</v>
+      </c>
+      <c r="L101">
+        <v>2.0879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>116</v>
+      </c>
+      <c r="L102">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>117</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="L104">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="L105">
+        <v>2.3924999999999998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="L106">
+        <v>1657.91489361702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="L108">
+        <v>1657.91489361702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="L109">
+        <v>2.0445000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="L110">
+        <v>1643.6068796068701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="L112">
+        <v>1643.6068796068701</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="L113">
+        <v>6.1050000000000002E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="L114">
+        <v>1674.4821428571399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>129</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="L116">
+        <v>1674.4821428571399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>131</v>
+      </c>
+      <c r="L117">
+        <v>2.436E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>132</v>
+      </c>
+      <c r="L118">
+        <v>1179.8965517241299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>133</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+      <c r="L120">
+        <v>1179.8965517241299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>135</v>
+      </c>
+      <c r="L121">
+        <v>1.305E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project 2/test_results_-_input.xlsx
+++ b/Project 2/test_results_-_input.xlsx
@@ -5330,7 +5330,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5374,12 +5374,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -5420,6 +5422,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -5477,10 +5480,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'test_results_-_input'!$D$2:$D$9</c:f>
+              <c:f>'test_results_-_input'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -5505,15 +5508,27 @@
                 <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'test_results_-_input'!$M$2:$M$9</c:f>
+              <c:f>'test_results_-_input'!$M$2:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.4240919999999999</c:v>
                 </c:pt>
@@ -5538,6 +5553,18 @@
                 <c:pt idx="7">
                   <c:v>33.091361999999997</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.133359999999897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.875196000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.777184999999903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.363153999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5553,11 +5580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149159296"/>
-        <c:axId val="149983232"/>
+        <c:axId val="260106496"/>
+        <c:axId val="260919680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149159296"/>
+        <c:axId val="260106496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,7 +5613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149983232"/>
+        <c:crossAx val="260919680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5594,7 +5621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149983232"/>
+        <c:axId val="260919680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,7 +5632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149159296"/>
+        <c:crossAx val="260106496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5662,10 +5689,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'test_results_-_input'!$D$2:$D$9</c:f>
+              <c:f>'test_results_-_input'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -5690,15 +5717,27 @@
                 <c:pt idx="7">
                   <c:v>400</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'test_results_-_input'!$H$2:$H$9</c:f>
+              <c:f>'test_results_-_input'!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1752.42483184867</c:v>
                 </c:pt>
@@ -5723,6 +5762,18 @@
                 <c:pt idx="7">
                   <c:v>1909.2383409729</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>1901.71526251145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1919.82005554189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1921.1824651448801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1924.2780442493699</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5738,11 +5789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140004736"/>
-        <c:axId val="140014720"/>
+        <c:axId val="261230592"/>
+        <c:axId val="261232128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140004736"/>
+        <c:axId val="261230592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,7 +5803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140014720"/>
+        <c:crossAx val="261232128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5760,7 +5811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140014720"/>
+        <c:axId val="261232128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,7 +5822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140004736"/>
+        <c:crossAx val="261230592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5798,15 +5849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>823912</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5828,15 +5879,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1223962</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1100137</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6169,10 +6220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6264,7 +6315,7 @@
       <c r="F2">
         <v>1500</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>100000000</v>
       </c>
       <c r="H2">
@@ -6285,13 +6336,13 @@
       <c r="M2">
         <v>3.4240919999999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>0.31046555351999999</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>1.9225783999999999E-4</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>0.68794873392</v>
       </c>
     </row>
@@ -6314,7 +6365,7 @@
       <c r="F3">
         <v>1500</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>100000000</v>
       </c>
       <c r="H3">
@@ -6335,13 +6386,13 @@
       <c r="M3">
         <v>7.9611780000000003</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>0.17899179263999901</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>1.4513855999999999E-4</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>0.82006430811999997</v>
       </c>
     </row>
@@ -6364,7 +6415,7 @@
       <c r="F4">
         <v>1500</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>100000000</v>
       </c>
       <c r="H4">
@@ -6385,13 +6436,13 @@
       <c r="M4">
         <v>12.244821</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>0.12150030771999901</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>1.1207257333333301E-4</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>0.87784555322666602</v>
       </c>
     </row>
@@ -6414,7 +6465,7 @@
       <c r="F5">
         <v>1500</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>100000000</v>
       </c>
       <c r="H5">
@@ -6435,13 +6486,13 @@
       <c r="M5">
         <v>17.338290000000001</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>9.8112101940000002E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>9.7412979999999996E-5</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>0.90136086861999998</v>
       </c>
     </row>
@@ -6464,7 +6515,7 @@
       <c r="F6">
         <v>1500</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>100000000</v>
       </c>
       <c r="H6">
@@ -6485,13 +6536,13 @@
       <c r="M6">
         <v>23.643543000000001</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>8.5872559015999994E-2</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>9.1617839999999897E-5</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>0.91366200513600004</v>
       </c>
     </row>
@@ -6514,7 +6565,7 @@
       <c r="F7">
         <v>1500</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>100000000</v>
       </c>
       <c r="H7">
@@ -6535,13 +6586,13 @@
       <c r="M7">
         <v>26.636687999999999</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>6.8162863493333295E-2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>7.8364373333333293E-5</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>0.93146785256666598</v>
       </c>
     </row>
@@ -6564,7 +6615,7 @@
       <c r="F8">
         <v>1500</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>100000000</v>
       </c>
       <c r="H8">
@@ -6585,13 +6636,13 @@
       <c r="M8">
         <v>30.867935999999901</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>5.7179638771428502E-2</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>7.2493068571428495E-5</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>0.94250115053142802</v>
       </c>
     </row>
@@ -6614,7 +6665,7 @@
       <c r="F9">
         <v>1500</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>100000000</v>
       </c>
       <c r="H9">
@@ -6635,14 +6686,214 @@
       <c r="M9">
         <v>33.091361999999997</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>4.7431084390000003E-2</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>6.5553000000000001E-5</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>0.95230200630999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>100000000</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="H10">
+        <v>1901.71526251145</v>
+      </c>
+      <c r="I10">
+        <v>4.3163759717551997</v>
+      </c>
+      <c r="J10">
+        <v>1897.39888653969</v>
+      </c>
+      <c r="K10">
+        <v>2443324</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>44.133359999999897</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4.0811830847999997E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5.8581583999999998E-5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.95895859064799904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>100000000</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>600</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="H11">
+        <v>1919.82005554189</v>
+      </c>
+      <c r="I11">
+        <v>5.9425990459225604</v>
+      </c>
+      <c r="J11">
+        <v>1913.8774564959699</v>
+      </c>
+      <c r="K11">
+        <v>3963237</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>54.875196000000003</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3.5731280623333299E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5.6082316666666599E-5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.96406562020666597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>100000000</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>700</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="H12">
+        <v>1921.1824651448801</v>
+      </c>
+      <c r="I12">
+        <v>5.37206583375972</v>
+      </c>
+      <c r="J12">
+        <v>1915.8103993111199</v>
+      </c>
+      <c r="K12">
+        <v>5035174</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>67.777184999999903</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3.2684094320000003E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5.3626974285714197E-5</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.96712917536571397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>100000000</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>800</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="H13">
+        <v>1924.2780442493699</v>
+      </c>
+      <c r="I13">
+        <v>5.9918428228902698</v>
+      </c>
+      <c r="J13">
+        <v>1918.2862014264799</v>
+      </c>
+      <c r="K13">
+        <v>5048395</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>77.363153999999994</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.8282927162499999E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>4.9855514999999998E-5</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.97155153168499997</v>
       </c>
     </row>
   </sheetData>
